--- a/papers/coalition/charts/least_core.xlsx
+++ b/papers/coalition/charts/least_core.xlsx
@@ -125,7 +125,7 @@
                   <c:v>0.14005973903005878</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15058681409578348</c:v>
+                  <c:v>0.15058681409578301</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.16369667963194981</c:v>
@@ -409,11 +409,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="46516864"/>
-        <c:axId val="127196544"/>
+        <c:axId val="92539904"/>
+        <c:axId val="77632256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46516864"/>
+        <c:axId val="92539904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -422,7 +422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127196544"/>
+        <c:crossAx val="77632256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -430,7 +430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127196544"/>
+        <c:axId val="77632256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -441,7 +441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46516864"/>
+        <c:crossAx val="92539904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -467,16 +467,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -785,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,7 +796,7 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.10460675536430311</v>
       </c>
@@ -817,20 +817,29 @@
       <c r="H1">
         <v>0.10460675536430311</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1">
+        <v>0.10460675536430311</v>
+      </c>
+      <c r="K1">
+        <v>0.10460675536430313</v>
+      </c>
+      <c r="M1">
+        <v>0.10460675536430311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.10587435111332863</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:D65" si="0">(TANH(A2*7*PI()/180)+1)/2</f>
+        <f t="shared" ref="B2:B65" si="0">(TANH(A2*7*PI()/180)+1)/2</f>
         <v>0.5064671353944028</v>
       </c>
       <c r="D2">
         <v>6.3125869999014483E-6</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E1:G65" si="1">MIN(D2+0.1,1)</f>
+        <f t="shared" ref="E2:E65" si="1">MIN(D2+0.1,1)</f>
         <v>0.10000631258699991</v>
       </c>
       <c r="G2">
@@ -839,8 +848,17 @@
       <c r="H2">
         <v>0.10587435111332863</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>0.105606755364303</v>
+      </c>
+      <c r="K2">
+        <v>0.1057851525303201</v>
+      </c>
+      <c r="M2">
+        <v>0.10569595394731154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.10748811488668561</v>
       </c>
@@ -861,8 +879,17 @@
       <c r="H3">
         <v>0.10748811488668561</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>0.106606755364303</v>
+      </c>
+      <c r="K3">
+        <v>0.10719432837922475</v>
+      </c>
+      <c r="M3">
+        <v>0.10690054187176387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.10954094670205136</v>
       </c>
@@ -883,8 +910,17 @@
       <c r="H4">
         <v>0.10954094670205136</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>0.107606755364303</v>
+      </c>
+      <c r="K4">
+        <v>0.10889621625613526</v>
+      </c>
+      <c r="M4">
+        <v>0.10825148581021912</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.11214966369254445</v>
       </c>
@@ -905,8 +941,17 @@
       <c r="H5">
         <v>0.11214966369254445</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>0.108606755364303</v>
+      </c>
+      <c r="K5">
+        <v>0.11096869424979731</v>
+      </c>
+      <c r="M5">
+        <v>0.10978772480705015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.1154605306751684</v>
       </c>
@@ -927,8 +972,17 @@
       <c r="H6">
         <v>0.1154605306751684</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>0.109606755364303</v>
+      </c>
+      <c r="K6">
+        <v>0.11350927223821328</v>
+      </c>
+      <c r="M6">
+        <v>0.11155801380125814</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.11965567956370635</v>
       </c>
@@ -949,8 +1003,17 @@
       <c r="H7">
         <v>0.11965567956370635</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>0.11060675536430201</v>
+      </c>
+      <c r="K7">
+        <v>0.11663937149723824</v>
+      </c>
+      <c r="M7">
+        <v>0.11362306343077012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.12496030477667305</v>
       </c>
@@ -971,8 +1034,17 @@
       <c r="H8">
         <v>0.12496030477667305</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>0.11160675536430199</v>
+      </c>
+      <c r="K8">
+        <v>0.12050912163921602</v>
+      </c>
+      <c r="M8">
+        <v>0.11605793850175901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.13165030984558176</v>
       </c>
@@ -993,8 +1065,17 @@
       <c r="H9">
         <v>0.13165030984558176</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>0.11260675536430199</v>
+      </c>
+      <c r="K9">
+        <v>0.12530245835182183</v>
+      </c>
+      <c r="M9">
+        <v>0.11895460685806192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.14005973903005878</v>
       </c>
@@ -1015,8 +1096,17 @@
       <c r="H10">
         <v>0.14005973903005878</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>0.113606755364302</v>
+      </c>
+      <c r="K10">
+        <v>0.13124207780813985</v>
+      </c>
+      <c r="M10">
+        <v>0.12242441658622091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.15058681409578348</v>
       </c>
@@ -1035,10 +1125,19 @@
         <v>0.10587435111332863</v>
       </c>
       <c r="H11">
-        <v>0.15058681409578348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.15058681409578301</v>
+      </c>
+      <c r="J11">
+        <v>0.114606755364302</v>
+      </c>
+      <c r="K11">
+        <v>0.13859346118528934</v>
+      </c>
+      <c r="M11">
+        <v>0.12660010827479568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.16369667963194981</v>
       </c>
@@ -1059,8 +1158,17 @@
       <c r="H12">
         <v>0.16369667963194981</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>0.115606755364302</v>
+      </c>
+      <c r="K12">
+        <v>0.1476667048760672</v>
+      </c>
+      <c r="M12">
+        <v>0.13663673012018501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.17991805402419206</v>
       </c>
@@ -1081,8 +1189,17 @@
       <c r="H13">
         <v>0.17991805402419206</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>0.116606755364302</v>
+      </c>
+      <c r="K13">
+        <v>0.15881428780422871</v>
+      </c>
+      <c r="M13">
+        <v>0.15881428780422899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.1998300033712245</v>
       </c>
@@ -1103,8 +1220,17 @@
       <c r="H14">
         <v>0.1998300033712245</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>0.117606755364302</v>
+      </c>
+      <c r="K14">
+        <v>0.17242225403558367</v>
+      </c>
+      <c r="M14">
+        <v>0.18242225403558401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.2240343035231919</v>
       </c>
@@ -1125,8 +1251,17 @@
       <c r="H15">
         <v>0.2240343035231919</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>0.118606755364302</v>
+      </c>
+      <c r="K15">
+        <v>0.218891787470229</v>
+      </c>
+      <c r="M15">
+        <v>0.218891787470229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.25310890195654845</v>
       </c>
@@ -1147,8 +1282,14 @@
       <c r="H16">
         <v>0.25310890195654845</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>0.253108901956548</v>
+      </c>
+      <c r="M16">
+        <v>0.253108901956548</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.28753968833846788</v>
       </c>
@@ -1169,8 +1310,14 @@
       <c r="H17">
         <v>0.28753968833846788</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>0.28753968833846788</v>
+      </c>
+      <c r="M17">
+        <v>0.28753968833846788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.34571266010765156</v>
       </c>
@@ -1191,8 +1338,14 @@
       <c r="H18">
         <v>0.34571266010765156</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>0.34571266010765156</v>
+      </c>
+      <c r="M18">
+        <v>0.34571266010765156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.37927397129372359</v>
       </c>
@@ -1213,8 +1366,14 @@
       <c r="H19">
         <v>0.37927397129372359</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>0.37927397129372359</v>
+      </c>
+      <c r="M19">
+        <v>0.37927397129372359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.44326200569894214</v>
       </c>
@@ -1235,8 +1394,14 @@
       <c r="H20">
         <v>0.44326200569894214</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>0.44326200569894214</v>
+      </c>
+      <c r="M20">
+        <v>0.44326200569894214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.51245237312848468</v>
       </c>
@@ -1257,8 +1422,14 @@
       <c r="H21">
         <v>0.51245237312848468</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>0.51245237312848468</v>
+      </c>
+      <c r="M21">
+        <v>0.51245237312848468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.55568377622374376</v>
       </c>
@@ -1279,8 +1450,14 @@
       <c r="H22">
         <v>0.55568377622374376</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>0.55568377622374376</v>
+      </c>
+      <c r="M22">
+        <v>0.55568377622374376</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.63332505240501547</v>
       </c>
@@ -1301,8 +1478,14 @@
       <c r="H23">
         <v>0.63332505240501547</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>0.63332505240501547</v>
+      </c>
+      <c r="M23">
+        <v>0.63332505240501547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.67009282126896008</v>
       </c>
@@ -1323,8 +1506,14 @@
       <c r="H24">
         <v>0.67009282126896008</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>0.67009282126896008</v>
+      </c>
+      <c r="M24">
+        <v>0.67009282126896008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.72233189214025306</v>
       </c>
@@ -1345,8 +1534,14 @@
       <c r="H25">
         <v>0.72233189214025306</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>0.72233189214025306</v>
+      </c>
+      <c r="M25">
+        <v>0.72233189214025306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.80086870604637661</v>
       </c>
@@ -1367,8 +1562,14 @@
       <c r="H26">
         <v>0.80086870604637661</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>0.80086870604637661</v>
+      </c>
+      <c r="M26">
+        <v>0.80086870604637661</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.83610341443118763</v>
       </c>
@@ -1389,8 +1590,14 @@
       <c r="H27">
         <v>0.83610341443118763</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>0.83610341443118763</v>
+      </c>
+      <c r="M27">
+        <v>0.83610341443118763</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.883652378547363</v>
       </c>
@@ -1411,8 +1618,14 @@
       <c r="H28">
         <v>0.883652378547363</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>0.883652378547363</v>
+      </c>
+      <c r="M28">
+        <v>0.883652378547363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.93100767891246905</v>
       </c>
@@ -1433,8 +1646,14 @@
       <c r="H29">
         <v>0.93100767891246905</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>0.93100767891246905</v>
+      </c>
+      <c r="M29">
+        <v>0.93100767891246905</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.95279003120218109</v>
       </c>
@@ -1455,8 +1674,14 @@
       <c r="H30">
         <v>0.95279003120218109</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>0.95279003120218109</v>
+      </c>
+      <c r="M30">
+        <v>0.95279003120218109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.98199999999999998</v>
       </c>
@@ -1477,8 +1702,14 @@
       <c r="H31">
         <v>0.98199999999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="M31">
+        <v>0.98199999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1499,8 +1730,14 @@
       <c r="H32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1521,8 +1758,14 @@
       <c r="H33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1543,8 +1786,14 @@
       <c r="H34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1565,8 +1814,14 @@
       <c r="H35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1587,8 +1842,14 @@
       <c r="H36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1609,8 +1870,14 @@
       <c r="H37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1631,8 +1898,14 @@
       <c r="H38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1653,8 +1926,14 @@
       <c r="H39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1675,8 +1954,14 @@
       <c r="H40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1697,8 +1982,14 @@
       <c r="H41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1719,8 +2010,14 @@
       <c r="H42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1741,8 +2038,14 @@
       <c r="H43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1763,8 +2066,14 @@
       <c r="H44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1785,8 +2094,14 @@
       <c r="H45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1807,8 +2122,14 @@
       <c r="H46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -1829,8 +2150,14 @@
       <c r="H47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1851,8 +2178,14 @@
       <c r="H48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -1873,8 +2206,14 @@
       <c r="H49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -1895,8 +2234,14 @@
       <c r="H50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -1917,8 +2262,14 @@
       <c r="H51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -1939,8 +2290,14 @@
       <c r="H52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -1961,8 +2318,14 @@
       <c r="H53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -1983,8 +2346,14 @@
       <c r="H54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2005,8 +2374,14 @@
       <c r="H55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2027,8 +2402,14 @@
       <c r="H56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2049,8 +2430,14 @@
       <c r="H57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2071,8 +2458,14 @@
       <c r="H58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2093,8 +2486,14 @@
       <c r="H59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2115,8 +2514,14 @@
       <c r="H60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2137,8 +2542,14 @@
       <c r="H61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2159,8 +2570,14 @@
       <c r="H62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2181,8 +2598,14 @@
       <c r="H63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2203,8 +2626,14 @@
       <c r="H64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2225,13 +2654,19 @@
       <c r="H65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:D100" si="2">(TANH(A66*7*PI()/180)+1)/2</f>
+        <f t="shared" ref="B66:B100" si="2">(TANH(A66*7*PI()/180)+1)/2</f>
         <v>0.56078439656149504</v>
       </c>
       <c r="D66">
@@ -2247,8 +2682,14 @@
       <c r="H66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2269,8 +2710,14 @@
       <c r="H67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2291,8 +2738,14 @@
       <c r="H68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2313,8 +2766,14 @@
       <c r="H69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2335,8 +2794,14 @@
       <c r="H70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2357,8 +2822,14 @@
       <c r="H71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2379,8 +2850,14 @@
       <c r="H72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2401,8 +2878,14 @@
       <c r="H73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2423,8 +2906,14 @@
       <c r="H74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2445,8 +2934,14 @@
       <c r="H75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2467,8 +2962,14 @@
       <c r="H76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2489,8 +2990,14 @@
       <c r="H77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2511,8 +3018,14 @@
       <c r="H78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -2533,8 +3046,14 @@
       <c r="H79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -2555,8 +3074,14 @@
       <c r="H80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -2577,8 +3102,14 @@
       <c r="H81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -2599,8 +3130,14 @@
       <c r="H82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -2621,8 +3158,14 @@
       <c r="H83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -2643,8 +3186,14 @@
       <c r="H84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -2665,8 +3214,14 @@
       <c r="H85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -2687,8 +3242,14 @@
       <c r="H86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -2709,8 +3270,14 @@
       <c r="H87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -2731,8 +3298,14 @@
       <c r="H88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -2753,8 +3326,14 @@
       <c r="H89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -2775,8 +3354,14 @@
       <c r="H90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -2797,8 +3382,14 @@
       <c r="H91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -2817,11 +3408,17 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <f t="shared" ref="H81:H100" ca="1" si="4">MIN(1,G92+(RAND()/40))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H92:H100" ca="1" si="4">MIN(1,G92+(RAND()/40))</f>
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -2843,8 +3440,14 @@
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -2866,8 +3469,14 @@
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -2889,8 +3498,14 @@
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -2912,8 +3527,14 @@
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -2935,8 +3556,14 @@
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -2958,8 +3585,14 @@
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -2981,8 +3614,14 @@
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3002,6 +3641,12 @@
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="M100">
         <v>1</v>
       </c>
     </row>
